--- a/src/main/resources/decisiontable/割引決定.xlsx
+++ b/src/main/resources/decisiontable/割引決定.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinamatsuda/workspace/12.0/rhdm_demo/rhdm-sample/src/main/resources/decisiontable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinamatsuda/repos/GitHub/rhdm-sample/src/main/resources/decisiontable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E70DD4-5FF1-FA4F-965B-8F87BCDC3F55}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B74F70-8F63-DD45-9D41-61CDFE38125C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="460" windowWidth="24080" windowHeight="16340" tabRatio="745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -913,6 +913,12 @@
     <xf numFmtId="49" fontId="22" fillId="19" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="22" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -922,29 +928,23 @@
     <xf numFmtId="49" fontId="22" fillId="19" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1399,11 +1399,11 @@
   </sheetPr>
   <dimension ref="A2:P32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="2" customWidth="1"/>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="18" hidden="1">
+    <row r="8" spans="1:16" ht="18" hidden="1" outlineLevel="1">
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1494,13 +1494,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="18" hidden="1">
+    <row r="9" spans="1:16" ht="18" hidden="1" outlineLevel="1">
       <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="126" hidden="1">
+    <row r="10" spans="1:16" ht="126" hidden="1" outlineLevel="1">
       <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="40">
+    <row r="11" spans="1:16" ht="40" collapsed="1">
       <c r="B11" s="12" t="s">
         <v>14</v>
       </c>
@@ -1594,7 +1594,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="2:7" ht="18" hidden="1">
+    <row r="21" spans="2:7" ht="18" hidden="1" outlineLevel="1">
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
@@ -1614,19 +1614,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="18" hidden="1" customHeight="1">
-      <c r="B22" s="18" t="s">
+    <row r="22" spans="2:7" ht="18" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B22" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="2:7" ht="126" hidden="1">
+    <row r="23" spans="2:7" ht="126" hidden="1" outlineLevel="1">
       <c r="B23" s="7" t="s">
         <v>33</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="40">
+    <row r="24" spans="2:7" ht="40" collapsed="1">
       <c r="B24" s="12" t="s">
         <v>35</v>
       </c>
@@ -1667,12 +1667,12 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="19" customHeight="1">
-      <c r="B25" s="26"/>
-      <c r="C25" s="24">
+      <c r="B25" s="27"/>
+      <c r="C25" s="23">
         <v>2</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19">
         <v>10000</v>
       </c>
       <c r="F25" s="13" t="s">
@@ -1683,12 +1683,12 @@
       </c>
     </row>
     <row r="26" spans="2:7" ht="19" customHeight="1">
-      <c r="B26" s="27"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="28">
+      <c r="B26" s="28"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="19">
         <v>10000</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="19">
         <v>100000</v>
       </c>
       <c r="F26" s="13" t="s">
@@ -1699,14 +1699,14 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="19" customHeight="1">
-      <c r="B27" s="22">
+      <c r="B27" s="25">
         <v>2</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="23">
         <v>5</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19">
         <v>10000</v>
       </c>
       <c r="F27" s="13" t="s">
@@ -1717,12 +1717,12 @@
       </c>
     </row>
     <row r="28" spans="2:7" ht="19" customHeight="1">
-      <c r="B28" s="23"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="28">
+      <c r="B28" s="26"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="19">
         <v>10000</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="19">
         <v>100000</v>
       </c>
       <c r="F28" s="13" t="s">
@@ -1733,14 +1733,14 @@
       </c>
     </row>
     <row r="29" spans="2:7" ht="19" customHeight="1">
-      <c r="B29" s="22">
+      <c r="B29" s="25">
         <v>5</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="23">
         <v>10</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28">
+      <c r="D29" s="19"/>
+      <c r="E29" s="19">
         <v>10000</v>
       </c>
       <c r="F29" s="13" t="s">
@@ -1751,12 +1751,12 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="19" customHeight="1">
-      <c r="B30" s="23"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="28">
+      <c r="B30" s="26"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="19">
         <v>10000</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="19">
         <v>100000</v>
       </c>
       <c r="F30" s="13" t="s">
@@ -1771,10 +1771,10 @@
       <c r="C31" s="13">
         <v>10</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="19">
         <v>100000</v>
       </c>
-      <c r="E31" s="28"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="13" t="s">
         <v>27</v>
       </c>
@@ -1783,12 +1783,12 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="19">
-      <c r="B32" s="21">
+      <c r="B32" s="18">
         <v>10</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
       <c r="F32" s="13" t="s">
         <v>27</v>
       </c>

--- a/src/main/resources/decisiontable/割引決定.xlsx
+++ b/src/main/resources/decisiontable/割引決定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinamatsuda/repos/GitHub/rhdm-sample/src/main/resources/decisiontable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B74F70-8F63-DD45-9D41-61CDFE38125C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698DA4C5-9875-234C-B0D0-F5287A004E97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="460" windowWidth="24080" windowHeight="16340" tabRatio="745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,13 +118,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$今回利用.set割引率($param); System.out.println($今回利用.getユーザID() + "の割引率は"+ $今回利用.get割引率() + "です");</t>
-    <rPh sb="0" eb="1">
-      <t>コンカイリヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ruletable 割引ランク設定</t>
     <rPh sb="0" eb="1">
       <t>リツ</t>
@@ -150,24 +143,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/* $param */
-ユーザID == $過去利用.ユーザID</t>
-    <rPh sb="0" eb="33">
-      <t>カコリヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>今回利用がある</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>modify($今回利用) {set割引ランク("$param")}
-System.out.println($今回利用.getユーザID() + "の割引ランクは"+ $今回利用.get割引ランク() + "です");</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -225,6 +205,22 @@
     <rPh sb="0" eb="1">
       <t>カコリヨウカイスウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$今回利用.set割引率($param); System.out.println($今回利用.getユーザーID() + "の割引率は"+ $今回利用.get割引率() + "です");</t>
+    <rPh sb="0" eb="1">
+      <t>コンカイリヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modify($今回利用) {set割引ランク("$param")}
+System.out.println($今回利用.getユーザーID() + "の割引ランクは"+ $今回利用.get割引ランク() + "です");</t>
+  </si>
+  <si>
+    <t>/* $param */
+ユーザーID == $過去利用.ユーザーID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1399,8 +1395,8 @@
   </sheetPr>
   <dimension ref="A2:P32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1505,7 +1501,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="40" collapsed="1">
@@ -1586,7 +1582,7 @@
     </row>
     <row r="20" spans="2:7" ht="17">
       <c r="B20" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1616,54 +1612,54 @@
     </row>
     <row r="22" spans="2:7" ht="18" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B22" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="22"/>
       <c r="F22" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="2:7" ht="126" hidden="1" outlineLevel="1">
       <c r="B23" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="40" collapsed="1">
       <c r="B24" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="19" customHeight="1">
@@ -1676,7 +1672,7 @@
         <v>10000</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>19</v>
@@ -1692,7 +1688,7 @@
         <v>100000</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>18</v>
@@ -1710,7 +1706,7 @@
         <v>10000</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>18</v>
@@ -1726,7 +1722,7 @@
         <v>100000</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>16</v>
@@ -1744,7 +1740,7 @@
         <v>10000</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>16</v>
@@ -1760,7 +1756,7 @@
         <v>100000</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>17</v>
@@ -1776,7 +1772,7 @@
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>8</v>
@@ -1790,7 +1786,7 @@
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>9</v>
